--- a/parabolic/2025/07/29/parabolic.xlsx
+++ b/parabolic/2025/07/29/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>7356</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,16 +482,131 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>231</v>
+        <v>653</v>
       </c>
       <c r="D2" t="n">
-        <v>592300</v>
+        <v>214200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1026600</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>6184</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>553</v>
+      </c>
+      <c r="D5" t="n">
+        <v>111500</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>7356</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>904700</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>7888</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>818</v>
+      </c>
+      <c r="D7" t="n">
+        <v>103100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/29/parabolic.xlsx
+++ b/parabolic/2025/07/29/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3864</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>653</v>
+        <v>212</v>
       </c>
       <c r="D2" t="n">
-        <v>214200</v>
+        <v>311600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3940</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>494</v>
       </c>
       <c r="D3" t="n">
-        <v>1026600</v>
+        <v>207600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>654</v>
       </c>
       <c r="D4" t="n">
-        <v>110500</v>
+        <v>279000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6184</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>553</v>
+        <v>137</v>
       </c>
       <c r="D5" t="n">
-        <v>111500</v>
+        <v>1109500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7356</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D6" t="n">
-        <v>904700</v>
+        <v>175100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7888</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,85 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>818</v>
+        <v>551</v>
       </c>
       <c r="D7" t="n">
-        <v>103100</v>
+        <v>131800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7356</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>228</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1072200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7810</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>163</v>
+      </c>
+      <c r="D9" t="n">
+        <v>362700</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7888</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>178000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/29/parabolic.xlsx
+++ b/parabolic/2025/07/29/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" t="n">
-        <v>311600</v>
+        <v>428800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D3" t="n">
-        <v>207600</v>
+        <v>290900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D4" t="n">
-        <v>279000</v>
+        <v>360900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>1109500</v>
+        <v>1361800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
-        <v>175100</v>
+        <v>186300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6184</t>
+          <t>4767</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>551</v>
+        <v>312</v>
       </c>
       <c r="D7" t="n">
-        <v>131800</v>
+        <v>114900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7356</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>228</v>
+        <v>551</v>
       </c>
       <c r="D8" t="n">
-        <v>1072200</v>
+        <v>169400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>7356</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="D9" t="n">
-        <v>362700</v>
+        <v>3814000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7888</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,39 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>813</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>178000</v>
+        <v>483400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7888</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>810</v>
+      </c>
+      <c r="D11" t="n">
+        <v>229200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
